--- a/src/storage/app/excel-exporter/templates/timekeeping_report.xlsx
+++ b/src/storage/app/excel-exporter/templates/timekeeping_report.xlsx
@@ -96,7 +96,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ghi chú:                                                                                                                                                                                                                                                                                                 Trưởng cơ sở xác nhận
+      <t xml:space="preserve">Ghi chú:                                                                                                                                                                                                                            Trưởng cơ sở xác nhận
 </t>
     </r>
     <r>
@@ -127,7 +127,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -172,6 +172,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -211,12 +219,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -252,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,11 +296,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,47 +308,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,9 +379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1571040</xdr:colOff>
+      <xdr:colOff>1569960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -376,7 +395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="13320"/>
-          <a:ext cx="1854720" cy="807840"/>
+          <a:ext cx="1853640" cy="806760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -529,9 +548,10 @@
       <c r="D11" s="13"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>15</v>
       </c>
     </row>
